--- a/doc/物联网平台 - 接口规格定义-下发流程已评审(1).xlsx
+++ b/doc/物联网平台 - 接口规格定义-下发流程已评审(1).xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\zhuhuazhen\test1\doc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="12630"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="12630" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="数据下发消息类型的下发流程" sheetId="15" r:id="rId1"/>
@@ -17,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="120">
   <si>
     <t>设备</t>
   </si>
@@ -54,10 +59,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>平台发布，设备端订阅</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>设备端发布，平台订阅</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -86,16 +87,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>msg=deviceid， 建立连接之前动态拼接的主题,发布万即关闭连接</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/公司编号/版本号/namespace/iotpub/status</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>/公司编号/版本号/namespace/iopub/deviceid</t>
@@ -172,10 +165,6 @@
       </rPr>
       <t>Q服务断线，MQ自动检测到，并推送一个down状态的消息给设备端，设备端会根据此标识关闭连接</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>遗愿机制 ，应用级别的在线监控</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -523,10 +512,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/公司编号/版本号/namespace1/iotpub/status</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>/公司编号/版本号/namespace1/devicepub</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -535,31 +520,95 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>如果是策略，IN入参可以是多个对象</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>策略场景，涉及多个时间点的操控，最终和设备交互的时候是通过一条指令实现的，即IN入参可以是多个</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>一般只有策略的场景IN才会有多个</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>总体流程已定</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>规则引擎: 信号vo： 一键报警触发后上报告警信号，然后下发联动操作指令</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/公司编号/版本号/namespace1/iotpub/status</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/公司编号/版本号/namespace1/devicepub/willflag</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>平台发布，平台订阅遗愿</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/公司编号/版本号/namespace/iotpub/status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>namespace1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>/公司编号/版本号/namespace1/iotpub/msg</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>如果是策略，IN入参可以是多个对象</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>策略场景，涉及多个时间点的操控，最终和设备交互的时候是通过一条指令实现的，即IN入参可以是多个</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>一般只有策略的场景IN才会有多个</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>总体流程已定</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平台发布，设备端订阅</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>平台上线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/公司编号/版本号/namespace/iotpub/status</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>namespace1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/公司编号/版本号/namespace1/iotpub/status/willflag</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>遗愿，平台下线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遗愿 ，应用级别的在线监控</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="14">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -668,7 +717,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -684,12 +733,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -729,7 +772,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -775,12 +818,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -793,10 +830,10 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -7004,52 +7041,52 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="T45" sqref="T45"/>
+    <sheetView topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="S27" sqref="S27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="19" max="19" width="8.5" customWidth="1"/>
     <col min="20" max="20" width="66.125" style="8" customWidth="1"/>
     <col min="30" max="30" width="12.75" customWidth="1"/>
     <col min="31" max="31" width="17.875" customWidth="1"/>
-    <col min="41" max="41" width="9" style="21"/>
+    <col min="41" max="41" width="9" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.2">
       <c r="T1" s="11"/>
     </row>
-    <row r="2" spans="1:43" ht="20.25">
-      <c r="T2" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="V2" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="W2" s="19"/>
-      <c r="X2" s="19"/>
-      <c r="Y2" s="19"/>
-      <c r="Z2" s="19"/>
-      <c r="AA2" s="19"/>
+    <row r="2" spans="1:43" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="T2" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="V2" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="W2" s="17"/>
+      <c r="X2" s="17"/>
+      <c r="Y2" s="17"/>
+      <c r="Z2" s="17"/>
+      <c r="AA2" s="17"/>
     </row>
-    <row r="5" spans="1:43" ht="20.25">
+    <row r="5" spans="1:43" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:43">
+    <row r="8" spans="1:43" x14ac:dyDescent="0.2">
       <c r="AD8" s="2"/>
     </row>
-    <row r="9" spans="1:43">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.2">
       <c r="AQ9" s="2"/>
     </row>
-    <row r="10" spans="1:43" ht="18.75">
+    <row r="10" spans="1:43" ht="18" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -7062,20 +7099,20 @@
       <c r="J10" s="2"/>
       <c r="AE10" s="3"/>
     </row>
-    <row r="11" spans="1:43">
+    <row r="11" spans="1:43" x14ac:dyDescent="0.2">
       <c r="AD11" s="2"/>
       <c r="AE11" s="4"/>
       <c r="AH11" s="2"/>
     </row>
-    <row r="12" spans="1:43">
+    <row r="12" spans="1:43" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="H12" s="2"/>
       <c r="AE12" s="4"/>
       <c r="AH12" s="2"/>
     </row>
-    <row r="13" spans="1:43">
+    <row r="13" spans="1:43" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>2</v>
       </c>
@@ -7083,9 +7120,9 @@
       <c r="AE13" s="4"/>
       <c r="AH13" s="2"/>
     </row>
-    <row r="14" spans="1:43">
+    <row r="14" spans="1:43" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -7099,67 +7136,70 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="4:30" ht="20.25">
+    <row r="17" spans="4:30" ht="20.25" x14ac:dyDescent="0.2">
       <c r="U17" s="6"/>
     </row>
-    <row r="19" spans="4:30">
+    <row r="19" spans="4:30" x14ac:dyDescent="0.2">
       <c r="K19" s="2"/>
     </row>
-    <row r="20" spans="4:30">
+    <row r="20" spans="4:30" x14ac:dyDescent="0.2">
       <c r="K20" s="2"/>
       <c r="AD20" s="2"/>
     </row>
-    <row r="21" spans="4:30">
+    <row r="21" spans="4:30" x14ac:dyDescent="0.2">
       <c r="K21" s="2"/>
     </row>
-    <row r="22" spans="4:30" ht="162">
+    <row r="22" spans="4:30" ht="171" x14ac:dyDescent="0.2">
       <c r="K22" s="2"/>
-      <c r="Q22" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="Z22" s="23" t="s">
-        <v>107</v>
+      <c r="Q22" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z22" s="21" t="s">
+        <v>101</v>
       </c>
     </row>
-    <row r="23" spans="4:30" ht="20.25">
-      <c r="D23" s="24" t="s">
-        <v>108</v>
+    <row r="23" spans="4:30" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="D23" s="22" t="s">
+        <v>102</v>
       </c>
       <c r="K23" s="2"/>
+      <c r="W23" t="s">
+        <v>103</v>
+      </c>
     </row>
-    <row r="26" spans="4:30" ht="15">
-      <c r="T26" s="20"/>
+    <row r="26" spans="4:30" ht="15" x14ac:dyDescent="0.2">
+      <c r="T26" s="18"/>
     </row>
-    <row r="27" spans="4:30" ht="15">
-      <c r="T27" s="20"/>
+    <row r="27" spans="4:30" ht="15" x14ac:dyDescent="0.2">
+      <c r="T27" s="18"/>
     </row>
-    <row r="28" spans="4:30" ht="15">
-      <c r="T28" s="20"/>
+    <row r="28" spans="4:30" ht="15" x14ac:dyDescent="0.2">
+      <c r="T28" s="18"/>
     </row>
-    <row r="29" spans="4:30" ht="15">
-      <c r="T29" s="20"/>
+    <row r="29" spans="4:30" ht="15" x14ac:dyDescent="0.2">
+      <c r="T29" s="18"/>
     </row>
-    <row r="30" spans="4:30" ht="15">
-      <c r="T30" s="20"/>
+    <row r="30" spans="4:30" ht="15" x14ac:dyDescent="0.2">
+      <c r="T30" s="18"/>
     </row>
-    <row r="31" spans="4:30" ht="15">
-      <c r="T31" s="20"/>
+    <row r="31" spans="4:30" ht="15" x14ac:dyDescent="0.2">
+      <c r="T31" s="18"/>
     </row>
-    <row r="32" spans="4:30" ht="20.25">
+    <row r="32" spans="4:30" ht="20.25" x14ac:dyDescent="0.2">
       <c r="J32" s="10"/>
       <c r="K32" s="10"/>
-      <c r="T32" s="20"/>
+      <c r="T32" s="18"/>
     </row>
-    <row r="33" spans="10:20" ht="20.25">
+    <row r="33" spans="10:20" ht="20.25" x14ac:dyDescent="0.2">
       <c r="J33" s="10"/>
       <c r="K33" s="10"/>
-      <c r="T33" s="20"/>
+      <c r="T33" s="18"/>
     </row>
-    <row r="34" spans="10:20" ht="15">
-      <c r="T34" s="20"/>
+    <row r="34" spans="10:20" ht="15" x14ac:dyDescent="0.2">
+      <c r="T34" s="18"/>
     </row>
-    <row r="35" spans="10:20" ht="15">
-      <c r="T35" s="20"/>
+    <row r="35" spans="10:20" ht="15" x14ac:dyDescent="0.2">
+      <c r="T35" s="18"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -7169,189 +7209,222 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="3" width="30.75" customWidth="1"/>
-    <col min="4" max="4" width="43.125" customWidth="1"/>
+    <col min="4" max="4" width="51.5" customWidth="1"/>
     <col min="5" max="5" width="33.75" customWidth="1"/>
     <col min="6" max="6" width="49.375" customWidth="1"/>
     <col min="7" max="7" width="24.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="43.5" customHeight="1">
+    <row r="1" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="54">
+    <row r="3" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="G4" s="9"/>
+      <c r="H4" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B5" s="2"/>
+      <c r="C5" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B6" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C13" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D14" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D15" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D16" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D17" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="2"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D24" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>103</v>
-      </c>
     </row>
-    <row r="4" spans="1:8" s="16" customFormat="1">
-      <c r="A4" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15" t="s">
-        <v>103</v>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D30" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>103</v>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E31" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
-      <c r="C11" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="D12" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="D13" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="D14" s="13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="D15" s="13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="2"/>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="D22" s="17" t="s">
+    <row r="33" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D33" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="D28" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="E29" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="D31" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -7362,14 +7435,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D6:Q87"/>
   <sheetViews>
     <sheetView topLeftCell="D1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
       <selection activeCell="N40" sqref="N40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="17.5" customWidth="1"/>
     <col min="5" max="5" width="18.375" customWidth="1"/>
@@ -7378,80 +7451,80 @@
     <col min="12" max="12" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="4:17">
-      <c r="Q6" s="22" t="s">
-        <v>98</v>
+    <row r="6" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="Q6" s="20" t="s">
+        <v>94</v>
       </c>
     </row>
-    <row r="14" spans="4:17">
+    <row r="14" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D14" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
-    <row r="23" spans="4:15">
+    <row r="23" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D23" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
-    <row r="24" spans="4:15">
+    <row r="24" spans="4:15" x14ac:dyDescent="0.2">
       <c r="E24" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
-    <row r="31" spans="4:15">
+    <row r="31" spans="4:15" x14ac:dyDescent="0.2">
       <c r="O31" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="32" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="O32" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="33" spans="4:15" ht="57" x14ac:dyDescent="0.2">
+      <c r="O33" s="21" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="38" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="D38" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="46" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="G46" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="47" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="G47" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="53" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D53" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="54" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E54" s="16" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="32" spans="4:15">
-      <c r="O32" s="2" t="s">
-        <v>89</v>
+    <row r="74" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D74" s="2" t="s">
+        <v>86</v>
       </c>
     </row>
-    <row r="33" spans="4:15" ht="54">
-      <c r="O33" s="23" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="38" spans="4:15">
-      <c r="D38" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="46" spans="4:15">
-      <c r="G46" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="47" spans="4:15">
-      <c r="G47" s="2" t="s">
+    <row r="87" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D87" s="2" t="s">
         <v>87</v>
-      </c>
-    </row>
-    <row r="53" spans="4:5">
-      <c r="D53" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="54" spans="4:5">
-      <c r="E54" s="18" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="74" spans="4:4">
-      <c r="D74" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="87" spans="4:4">
-      <c r="D87" s="2" t="s">
-        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -7463,14 +7536,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D5:R17"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="19.25" customWidth="1"/>
     <col min="5" max="5" width="24.5" customWidth="1"/>
@@ -7480,217 +7553,217 @@
     <col min="14" max="14" width="3.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="4:18">
+    <row r="5" spans="4:18" x14ac:dyDescent="0.2">
       <c r="D5" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
-    <row r="6" spans="4:18">
+    <row r="6" spans="4:18" x14ac:dyDescent="0.2">
       <c r="D6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" t="s">
+        <v>93</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="D7" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="M7" s="13" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="D8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="D9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="D10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="D11" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="E6" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6" t="s">
-        <v>97</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>73</v>
+      <c r="E11" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>69</v>
       </c>
     </row>
-    <row r="7" spans="4:18">
-      <c r="D7" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E7" t="s">
+    <row r="12" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="D12" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="G12" s="15"/>
+      <c r="L12" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="D13" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="M7" s="13" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="8" spans="4:18">
-      <c r="D8" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E8" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="9" spans="4:18">
-      <c r="D9" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E9" t="s">
-        <v>39</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="10" spans="4:18">
-      <c r="D10" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E10" t="s">
-        <v>40</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="11" spans="4:18">
-      <c r="D11" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="F11" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="G11" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="12" spans="4:18">
-      <c r="D12" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="E12" s="17" t="s">
+      <c r="G13" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="M13" s="13" t="s">
         <v>43</v>
-      </c>
-      <c r="F12" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="G12" s="17"/>
-      <c r="L12" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="13" spans="4:18">
-      <c r="D13" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="M13" s="13" t="s">
-        <v>47</v>
       </c>
       <c r="N13" s="1"/>
       <c r="O13" s="13" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
     </row>
-    <row r="14" spans="4:18">
+    <row r="14" spans="4:18" x14ac:dyDescent="0.2">
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="O14" s="2"/>
     </row>
-    <row r="15" spans="4:18">
+    <row r="15" spans="4:18" x14ac:dyDescent="0.2">
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="O15" s="2"/>
     </row>
-    <row r="16" spans="4:18">
+    <row r="16" spans="4:18" x14ac:dyDescent="0.2">
       <c r="D16" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="M16" s="2"/>
       <c r="O16" s="2"/>
     </row>
-    <row r="17" spans="4:13">
+    <row r="17" spans="4:13" x14ac:dyDescent="0.2">
       <c r="D17" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
